--- a/findings/recep_tayyip_erdogan.xlsx
+++ b/findings/recep_tayyip_erdogan.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,52 +468,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>millet, buluş, oy, sandık, seçim</t>
+          <t>yayın, canlı, ortak, tv, program</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, sandık, seçim</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>şehit, rahmet, camii, atatürk, emanet</t>
+          <t>milyar, yatırım, lira, kamu, dolar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, gazi, allah</t>
+          <t>milyar, yatırım, lira, dolar, kamu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, kamu, dolar</t>
+          <t>şehit, rahmet, atatürk, emanet, teşekkür</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, dolar, kamu</t>
+          <t>şehit, rahmet, atatürk, an, gazi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, adana, geleneksel</t>
+          <t>öğretmen, emekli, eğitim, maaş, okul</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,29 +521,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, van, adana</t>
+          <t>öğretmen, emekli, maaş, eğitim, hak</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>türkiye, yüzyıl, türk, milliyetçilik, millet</t>
+          <t>teşekkür, muhteşem, kardeş, istanbul, ramazan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
+          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>teşekkür, muhteşem, istanbul, kardeş, ramazan</t>
+          <t>muhteşem, bil, şanlıurfa, geleneksel, ihtişam</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -551,14 +551,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, misafirperverlikleri</t>
+          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, ülke</t>
+          <t>türkiye, yüzyıl, türk, milliyetçilik, huzur</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,67 +566,67 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, ülke</t>
+          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>canlı, yayın, ortak, bölüm, tv</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>millet, örgüt, chp, ver, kardeş</t>
+          <t>sandık, oy, millet, seçim, buluş</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>millet, örgüt, saldırı, chp, el</t>
+          <t>buluş, millet, oy, imza, seçim</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>emekli, maaş, düşük, lira, hanım</t>
+          <t>türkiye, ırak, bayram, kardeş, karşı</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>emekli, maaş, polis, hak, düşük</t>
+          <t>türk, bayram, türkiye, millet, atatürk</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>uzay, uçak, milli, helikopter, fırla</t>
+          <t>millet, chp, mayıs, al, ver</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>uzay, helikopter, uçak, kuzey, milli</t>
+          <t>millet, al, saldırı, chp, insan</t>
         </is>
       </c>
     </row>

--- a/findings/recep_tayyip_erdogan.xlsx
+++ b/findings/recep_tayyip_erdogan.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,67 +468,67 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yayın, canlı, ortak, tv, program</t>
+          <t>bayram, atatürk, yıl, gazi, ecdat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>bayram, atatürk, türk, kutlu, mustafa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, kamu, dolar</t>
+          <t>millet, sandık, seçim, oy, mayıs</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>milyar, yatırım, lira, dolar, kamu</t>
+          <t>millet, oy, buluş, sandık, seçim</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, emanet, teşekkür</t>
+          <t>milyar, yatırım, lira, kamu, dolar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, an, gazi</t>
+          <t>milyar, yatırım, lira, dolar, kamu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>öğretmen, emekli, eğitim, maaş, okul</t>
+          <t>türkiye, yüzyıl, türk, milliyetçilik, millet</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>öğretmen, emekli, maaş, eğitim, hak</t>
+          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>teşekkür, muhteşem, kardeş, istanbul, ramazan</t>
+          <t>muhteşem, bil, şanlıurfa, geleneksel, van</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -536,29 +536,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
+          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, geleneksel, ihtişam</t>
+          <t>teşekkür, muhteşem, istanbul, büyük, kardeş</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
+          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>türkiye, yüzyıl, türk, milliyetçilik, huzur</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,14 +566,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
+          <t>nükleer, santral, enerji, üretim, gaz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
+          <t>şehit, rahmet, atatürk, emanet, havaliman</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,29 +581,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
+          <t>şehit, rahmet, atatürk, an, dönüm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sandık, oy, millet, seçim, buluş</t>
+          <t>canlı, yayın, ortak, bölüm, tv</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, imza, seçim</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>türkiye, ırak, bayram, kardeş, karşı</t>
+          <t>gök, iş, gülsün, allah, sevdalı</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -611,22 +611,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>türk, bayram, türkiye, millet, atatürk</t>
+          <t>iyi, sanatçı, allah, iş, çık</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>millet, chp, mayıs, al, ver</t>
+          <t>ırak, terör, kardeş, örgüt, karşı</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>millet, al, saldırı, chp, insan</t>
+          <t>ırak, terör, örgüt, karşı, kardeş</t>
         </is>
       </c>
     </row>

--- a/findings/recep_tayyip_erdogan.xlsx
+++ b/findings/recep_tayyip_erdogan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,197 +436,238 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Words</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>konut, deprem, temel, hastane, at</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>101</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>konut, deprem, temel, at, ev</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>konut, deprem, temel, at, ev</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bayram, atatürk, yıl, gazi, ecdat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bayram, atatürk, türk, kutlu, mustafa</t>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>muhteşem, buluş, millet, hatay, erzurum</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>buluş, millet, muhteşem, erzurum, hatay</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>millet, sandık, seçim, oy, mayıs</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rahmet, atatürk, şehit, gazi, teşekkür</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rahmet, atatürk, şehit, dile, allah</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>türkiye, yüzyıl, ülke, mayıs, millet</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>türkiye, yüzyıl, ülke, mayıs, millet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>teşekkür, kardeş, muhteşem, güzel, istanbul</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>teşekkür, kardeş, muhteşem, güzel, istanbul</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>seçim, sandık, mayıs, millet, oy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>millet, oy, buluş, sandık, seçim</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>seçim, sandık, millet, mayıs, oy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>milyar, yatırım, lira, kamu, yıl</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>milyar, yatırım, lira, kamu, dolar</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>31</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>milyar, yatırım, lira, dolar, kamu</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>türkiye, yüzyıl, türk, milliyetçilik, millet</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>muhteşem, bil, şanlıurfa, geleneksel, van</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>26</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>muhteşem, bil, şanlıurfa, van, geleneksel</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>teşekkür, muhteşem, istanbul, büyük, kardeş</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>24</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>nükleer, santral, enerji, üretim, gaz</t>
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nükleer, santral, enerji, üretim, ülke</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nükleer, santral, enerji, üretim, ülke</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>şehit, rahmet, atatürk, emanet, havaliman</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>şehit, rahmet, atatürk, an, dönüm</t>
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>canlı, yayın, ortak, tv, bölüm</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>canlı, yayın, tv, basın, açıkla</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>canlı, yayın, ortak, bölüm, tv</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>emekli, maaş, hanım, aile, düşük</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>emekli, maaş, hanım, aile, düşük</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>gök, iş, gülsün, allah, sevdalı</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>iyi, sanatçı, allah, iş, çık</t>
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>uzay, altay, milli, uçak, tank</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>uzay, altay, milli, tank, uçak</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ırak, terör, kardeş, örgüt, karşı</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ırak, terör, örgüt, karşı, kardeş</t>
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>togg, uğurla, yol, mersin, yalnız</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gel, sev, haydi, vatan, bura</t>
         </is>
       </c>
     </row>
